--- a/Riesgo de liquidez/RepasoParcial2.xlsx
+++ b/Riesgo de liquidez/RepasoParcial2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegolozoya/Documents/ITESO/Semestre 6/Administración de riesgos/Riesgo de liquidez/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646E8BD6-B15E-3B43-B552-F3F7927DA530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB69D08A-A7FA-BF45-B3A6-3EF2823594C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-1780" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{443ECD19-7701-7346-B2F8-5276DA26F10F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="6" xr2:uid="{443ECD19-7701-7346-B2F8-5276DA26F10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Commodities" sheetId="4" r:id="rId1"/>
@@ -380,6 +380,7 @@
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,7 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1676,21 +1676,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
@@ -10582,14 +10582,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="42"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -41081,7 +41081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39470651-BDA8-7240-A443-291CB9DC1C8D}">
   <dimension ref="A2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -41359,13 +41359,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I25" s="43">
+      <c r="I25" s="39">
         <f>E15</f>
         <v>1949.2042600317727</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I31" s="43">
+      <c r="I31" s="39">
         <f>H15</f>
         <v>17755.158120381275</v>
       </c>

--- a/Riesgo de liquidez/RepasoParcial2.xlsx
+++ b/Riesgo de liquidez/RepasoParcial2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegolozoya/Documents/ITESO/Semestre 6/Administración de riesgos/Riesgo de liquidez/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB69D08A-A7FA-BF45-B3A6-3EF2823594C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37FE762-06ED-D24F-B63C-78F7CB2EE239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="6" xr2:uid="{443ECD19-7701-7346-B2F8-5276DA26F10F}"/>
   </bookViews>
@@ -41081,7 +41081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39470651-BDA8-7240-A443-291CB9DC1C8D}">
   <dimension ref="A2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
